--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_3_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_3_sawtooth_05_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.8300000000006</v>
+        <v>25.58000000000056</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.047806747951242e-06</v>
+        <v>1.144397428931576e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>4.933651379977909e-05</v>
+        <v>2.013084047279802e-05</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.310879697171776</v>
+        <v>5.555226070754964</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.7994413641189304, 7.822318030224622]</t>
+          <t>[3.1038660376510805, 8.006586103858847]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.970854536494706e-05</v>
+        <v>1.100359731354139e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>7.941709072989411e-05</v>
+        <v>2.200719462708278e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.270473905956233</v>
+        <v>-1.358526552903695</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.7987897876410024, -0.7421580242714629]</t>
+          <t>[-1.8742634850245423, -0.8427896207828471]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3.193224021424967e-06</v>
+        <v>3.616308816845049e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>3.193224021424967e-06</v>
+        <v>3.616308816845049e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>11.92857562434453</v>
+        <v>12.03585748987473</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.504697072097985, 13.352454176591072]</t>
+          <t>[10.588095873022208, 13.48361910672725]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.222882882883003</v>
+        <v>5.530810810810934</v>
       </c>
       <c r="X2" t="n">
-        <v>3.050990990991062</v>
+        <v>3.431151151151226</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.394774774774943</v>
+        <v>7.630470470470642</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.98000000000047</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001218396697820756</v>
+        <v>0.0007706462536779535</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0005821865681787228</v>
+        <v>0.002802182823273261</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.879318664852772</v>
+        <v>4.480020723192665</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.0567691905872785, 7.701868139118265]</t>
+          <t>[1.6743054995047473, 7.285735946880582]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0007630467587347312</v>
+        <v>0.001849089378651358</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0007630467587347312</v>
+        <v>0.001849089378651358</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.861684535460618</v>
+        <v>2.937184723176043</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.5283688623485423, -1.1950002085726945]</t>
+          <t>[2.157289850212811, 3.717079596139275]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>8.605983814469198e-08</v>
+        <v>1.414868222582299e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.72119676289384e-07</v>
+        <v>2.829736445164599e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>10.88623151163532</v>
+        <v>11.31585656786661</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.28974030960805, 12.482722713662596]</t>
+          <t>[9.674590695016743, 12.957122440716468]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.401481481481621</v>
+        <v>13.04172172172193</v>
       </c>
       <c r="X3" t="n">
-        <v>4.750950950951042</v>
+        <v>10.00192192192208</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.0520120120122</v>
+        <v>16.08152152152178</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_3_sawtooth_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_05/cosinor_3_sawtooth_05_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.58000000000056</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.144397428931576e-06</v>
+        <v>5.585675000052692e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>2.013084047279802e-05</v>
+        <v>0.0001500651166363998</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.555226070754964</v>
+        <v>4.664699535956164</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.1038660376510805, 8.006586103858847]</t>
+          <t>[2.395241423396926, 6.934157648515401]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.100359731354139e-05</v>
+        <v>6.430019163805589e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.200719462708278e-05</v>
+        <v>0.0001020739868888842</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.358526552903695</v>
+        <v>-1.58494764505431</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8742634850245423, -0.8427896207828471]</t>
+          <t>[-2.239053022378311, -0.9308422677303092]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3.616308816845049e-07</v>
+        <v>2.699448492515799e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>3.616308816845049e-07</v>
+        <v>2.699448492515799e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>12.03585748987473</v>
+        <v>11.67885146448651</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[10.588095873022208, 13.48361910672725]</t>
+          <t>[10.237337038485808, 13.12036589048721]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.530810810810934</v>
+        <v>6.429909909910048</v>
       </c>
       <c r="X2" t="n">
-        <v>3.431151151151226</v>
+        <v>3.776296296296378</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.630470470470642</v>
+        <v>9.083523523523718</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.49000000000039</v>
+        <v>24.23000000000035</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0007706462536779535</v>
+        <v>8.18820477532789e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002802182823273261</v>
+        <v>1.201741488543462e-05</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.480020723192665</v>
+        <v>6.348915938857295</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.6743054995047473, 7.285735946880582]</t>
+          <t>[3.178105213387038, 9.519726664327552]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.001849089378651358</v>
+        <v>0.0001020739868888842</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001849089378651358</v>
+        <v>0.0001020739868888842</v>
       </c>
       <c r="O3" t="n">
-        <v>2.937184723176043</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.157289850212811, 3.717079596139275]</t>
+          <t>[1.8931319093704255, 2.8239741771007347]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.414868222582299e-12</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.829736445164599e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.31585656786661</v>
+        <v>11.66605547411578</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.674590695016743, 12.957122440716468]</t>
+          <t>[10.031571690973301, 13.300539257258258]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.04172172172193</v>
+        <v>15.13465465465487</v>
       </c>
       <c r="X3" t="n">
-        <v>10.00192192192208</v>
+        <v>13.33983983984003</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.08152152152178</v>
+        <v>16.92946946946972</v>
       </c>
     </row>
   </sheetData>
